--- a/biology/Microbiologie/Gélose_ADN-bleu_de_toluidine/Gélose_ADN-bleu_de_toluidine.xlsx
+++ b/biology/Microbiologie/Gélose_ADN-bleu_de_toluidine/Gélose_ADN-bleu_de_toluidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélose à ADN au bleu de toluidine est utilisée pour déterminer la présence d'une activité nucléase chez un micro-organisme.
 En routine, on l'utilise pour identifier l'expression d'une DNAse thermorésistante (ou thermonucléase TNase) caractéristique de l'espèce Staphylococcus aureus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Recherche de la DNAse thermorésistante de Staphylococcus (Microbiologie alimentaire et médicale)
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans un premier temps élimination des nucléases thermolabiles par chauffage (notamment de Staphylococcus epidermidis et Micrococcus sp.)
 Métachromasie du bleu de toluidine vers le rouge/rose du fait de l'action de la TNase sur l'ADN du milieu (en présence de Ca++)
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Composition basé sur Les Milieux de culture de N. Marchal, J.L. Bourdon et Cl. Richard [1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Composition basé sur Les Milieux de culture de N. Marchal, J.L. Bourdon et Cl. Richard 
 - Tampon TRIS pH 9 (0,05 M) .................................1000mL
 - ADN .......................................................0,3g
 - Solution de bleu de toluidine (0,1 M)......................3mL
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieu prêt à l'emploi. Il est possible de la fabriquer à partir des constituants de base.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,9 +664,11 @@
           <t>Recherche de la DNAse thermostable ou Thermonucléase</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La DNAse thermostable est une enzyme qui résiste à la chaleur (100 °C pendant 15 minutes) et qui dégrade l'ADN selon la réaction :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La DNAse thermostable est une enzyme qui résiste à la chaleur (100 °C pendant 15 minutes) et qui dégrade l'ADN selon la réaction :
         A
         D
         N
@@ -682,8 +704,43 @@
         s
         .
     {\displaystyle ADN\longrightarrow Nucl{\acute {e}}tides\ ou\ polynulc{\acute {e}}otides.}
-Technique
-Ensemencer un bouillon cœur-cervelle pendant 24 heures à 37 °C, ou 3 à 4 heures sous agitations [1], avec la souche à étudier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9lose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Recherche de la DNAse thermostable ou Thermonucléase</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensemencer un bouillon cœur-cervelle pendant 24 heures à 37 °C, ou 3 à 4 heures sous agitations , avec la souche à étudier.
 En placer, une partie 15 min au bain-marie (100 °C) et conserver le reste.
 Percer la gélose de 3 trous. Inoculer quelques gouttes :
 De bouillon stérile dans le premier puits. (contrôle négatif)
@@ -691,8 +748,43 @@
 De bouillon non chauffé dans le troisième. (facultatif - contrôle positif)
 Incuber 4 heures à 37 °C.
 Remarques : bien noter le contenu de chaque puits au dos de la boîte de Petri. Limiter à quelques gouttes de bouillon sans faire déborder les puits. Incuber la gélose sans retourner la boîte.
-Lecture
-L'observation d'un éventuel halo rose de métachromasie signe la présence d'une DNAse autour des trous percés sur le fond bleu de la gélose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9lose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Recherche de la DNAse thermostable ou Thermonucléase</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'observation d'un éventuel halo rose de métachromasie signe la présence d'une DNAse autour des trous percés sur le fond bleu de la gélose.
 Puits témoin : contenant du bouillon cœur cervelle stérile
 Puits contenant du milieu cœur cervelle avec la souche à étudier
 Puits contenant du milieu cœur cervelle ensemencé puis chauffé a 100 °C pendant 10 minutes
@@ -702,63 +794,67 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9lose_ADN-bleu_de_toluidine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9lose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Limites</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Présence de TNase chez S. hyicus, S. intermedius, S.lugdunensis et S. schleiferi</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>G%C3%A9lose_ADN-bleu_de_toluidine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9lose_ADN-bleu_de_toluidine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gélose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9lose_ADN-bleu_de_toluidine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Alternative simplifiée</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une autre méthode proposée par Diagnostics Pasteur peut également être utilisée[1]. Voici en quoi elle consiste :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre méthode proposée par Diagnostics Pasteur peut également être utilisée. Voici en quoi elle consiste :
 Sur Baird-Paker, après 24 h de culture (habituellement 48 h)
 Observer les boîtes à la recherche de colonies suspectes (colonies noires avec halo clair)
 Placer ces boîtes à 60 °C durant 2 heures et laisser refroidir
